--- a/APM files/125325092/125325092 IMPORT 2 Compensation Update.xlsx
+++ b/APM files/125325092/125325092 IMPORT 2 Compensation Update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\125325092\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3674F9-5CFC-4013-BCBA-0EA4C91B190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42370A8A-5801-4454-92A6-F7FD40C90367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="5580" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="3660" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="121">
   <si>
     <t>Action Type</t>
   </si>
@@ -71,13 +71,331 @@
     <t>Agency</t>
   </si>
   <si>
-    <t>92329006</t>
-  </si>
-  <si>
-    <t>610468698</t>
-  </si>
-  <si>
-    <t>610468697</t>
+    <t>7421795</t>
+  </si>
+  <si>
+    <t>2022_HC_20</t>
+  </si>
+  <si>
+    <t>610341767</t>
+  </si>
+  <si>
+    <t>2022_EC_20</t>
+  </si>
+  <si>
+    <t>610341766</t>
+  </si>
+  <si>
+    <t>7421795_D_S_C_0</t>
+  </si>
+  <si>
+    <t>340011947</t>
+  </si>
+  <si>
+    <t>7421795_D_S_M_0</t>
+  </si>
+  <si>
+    <t>340011946</t>
+  </si>
+  <si>
+    <t>201195083</t>
+  </si>
+  <si>
+    <t>88682948</t>
+  </si>
+  <si>
+    <t>610351940</t>
+  </si>
+  <si>
+    <t>610351939</t>
+  </si>
+  <si>
+    <t>81755833</t>
+  </si>
+  <si>
+    <t>2023_HC_18</t>
+  </si>
+  <si>
+    <t>610724538</t>
+  </si>
+  <si>
+    <t>2023_EC_18</t>
+  </si>
+  <si>
+    <t>610724537</t>
+  </si>
+  <si>
+    <t>610237837</t>
+  </si>
+  <si>
+    <t>1357274</t>
+  </si>
+  <si>
+    <t>610297109</t>
+  </si>
+  <si>
+    <t>610297108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Margin Pricing </t>
+  </si>
+  <si>
+    <t>240001605</t>
+  </si>
+  <si>
+    <t>Package Margin</t>
+  </si>
+  <si>
+    <t>173164</t>
+  </si>
+  <si>
+    <t>Standalone Margin</t>
+  </si>
+  <si>
+    <t>137986</t>
+  </si>
+  <si>
+    <t>92329461</t>
+  </si>
+  <si>
+    <t>610468723</t>
+  </si>
+  <si>
+    <t>610468722</t>
+  </si>
+  <si>
+    <t>53264</t>
+  </si>
+  <si>
+    <t>2022_HC_18</t>
+  </si>
+  <si>
+    <t>610278177</t>
+  </si>
+  <si>
+    <t>2022_EC_18</t>
+  </si>
+  <si>
+    <t>610278176</t>
+  </si>
+  <si>
+    <t>53264_D_S_C_00</t>
+  </si>
+  <si>
+    <t>480000336</t>
+  </si>
+  <si>
+    <t>53264_D_S_M_00</t>
+  </si>
+  <si>
+    <t>480000335</t>
+  </si>
+  <si>
+    <t>Standalone Commission</t>
+  </si>
+  <si>
+    <t>200316209</t>
+  </si>
+  <si>
+    <t>76483631</t>
+  </si>
+  <si>
+    <t>610414952</t>
+  </si>
+  <si>
+    <t>610414951</t>
+  </si>
+  <si>
+    <t>76483631_D_S_C_0</t>
+  </si>
+  <si>
+    <t>610414946</t>
+  </si>
+  <si>
+    <t>76483631_D_S_M_0</t>
+  </si>
+  <si>
+    <t>610414945</t>
+  </si>
+  <si>
+    <t>610202230</t>
+  </si>
+  <si>
+    <t>610179625</t>
+  </si>
+  <si>
+    <t>610179624</t>
+  </si>
+  <si>
+    <t>96131965</t>
+  </si>
+  <si>
+    <t>610616809</t>
+  </si>
+  <si>
+    <t>610616808</t>
+  </si>
+  <si>
+    <t>82623706</t>
+  </si>
+  <si>
+    <t>610242449</t>
+  </si>
+  <si>
+    <t>610242448</t>
+  </si>
+  <si>
+    <t>88620139</t>
+  </si>
+  <si>
+    <t>2023_EC_20</t>
+  </si>
+  <si>
+    <t>610350556</t>
+  </si>
+  <si>
+    <t>2023_HC_20</t>
+  </si>
+  <si>
+    <t>610350555</t>
+  </si>
+  <si>
+    <t>83282123</t>
+  </si>
+  <si>
+    <t>610483878</t>
+  </si>
+  <si>
+    <t>610483877</t>
+  </si>
+  <si>
+    <t>610257861</t>
+  </si>
+  <si>
+    <t>610257860</t>
+  </si>
+  <si>
+    <t>34879349</t>
+  </si>
+  <si>
+    <t>MerchantPackage</t>
+  </si>
+  <si>
+    <t>380028720</t>
+  </si>
+  <si>
+    <t>380028719</t>
+  </si>
+  <si>
+    <t>380028718</t>
+  </si>
+  <si>
+    <t>99040983</t>
+  </si>
+  <si>
+    <t>610673108</t>
+  </si>
+  <si>
+    <t>610673107</t>
+  </si>
+  <si>
+    <t>42718487</t>
+  </si>
+  <si>
+    <t>610351189</t>
+  </si>
+  <si>
+    <t>610351188</t>
+  </si>
+  <si>
+    <t>490048638</t>
+  </si>
+  <si>
+    <t>490048637</t>
+  </si>
+  <si>
+    <t>490048636</t>
+  </si>
+  <si>
+    <t>100352744</t>
+  </si>
+  <si>
+    <t>610716829</t>
+  </si>
+  <si>
+    <t>610716828</t>
+  </si>
+  <si>
+    <t>91084948</t>
+  </si>
+  <si>
+    <t>610429014</t>
+  </si>
+  <si>
+    <t>610429013</t>
+  </si>
+  <si>
+    <t>33356684</t>
+  </si>
+  <si>
+    <t>560034077</t>
+  </si>
+  <si>
+    <t>2024_EC_18</t>
+  </si>
+  <si>
+    <t>560034076</t>
+  </si>
+  <si>
+    <t>2024_HC_18</t>
+  </si>
+  <si>
+    <t>560034075</t>
+  </si>
+  <si>
+    <t>99564168</t>
+  </si>
+  <si>
+    <t>610686310</t>
+  </si>
+  <si>
+    <t>610686309</t>
+  </si>
+  <si>
+    <t>99565356</t>
+  </si>
+  <si>
+    <t>610686355</t>
+  </si>
+  <si>
+    <t>610686354</t>
+  </si>
+  <si>
+    <t>69700134</t>
+  </si>
+  <si>
+    <t>610685787</t>
+  </si>
+  <si>
+    <t>610685786</t>
+  </si>
+  <si>
+    <t>70797485</t>
+  </si>
+  <si>
+    <t>610687382</t>
+  </si>
+  <si>
+    <t>610687381</t>
+  </si>
+  <si>
+    <t>71663188</t>
+  </si>
+  <si>
+    <t>610687286</t>
+  </si>
+  <si>
+    <t>610687285</t>
   </si>
 </sst>
 </file>
@@ -440,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,10 +800,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -505,15 +823,1487 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67">
         <v>0.16500000000000001</v>
       </c>
     </row>
